--- a/img30/offline-30mv-Layer1-Test0.xlsx
+++ b/img30/offline-30mv-Layer1-Test0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tsubaki/Desktop/Github/zianlab/img30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C6E878-5764-0F4B-BC03-EC763FED5A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634B1256-1475-C24C-81DC-B39ABE8DDD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:v>频率</c:v>
@@ -738,7 +738,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-07F7-3047-BE44-E4AAA7DF3C7C}"/>
+              <c16:uniqueId val="{00000006-959B-3E41-8D6A-240EE546F64D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -751,11 +751,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="1793160047"/>
-        <c:axId val="1793162703"/>
+        <c:axId val="1772713583"/>
+        <c:axId val="1794040431"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1793160047"/>
+        <c:axId val="1772713583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,7 +783,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1793162703"/>
+        <c:crossAx val="1794040431"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -791,7 +791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1793162703"/>
+        <c:axId val="1794040431"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -819,7 +819,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1793160047"/>
+        <c:crossAx val="1772713583"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -830,14 +830,8 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1175,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H90"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S40" sqref="S40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
